--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -3326,7 +3326,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3368,113 +3368,113 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D2">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="E2">
+        <v>0.51</v>
+      </c>
+      <c r="F2">
         <v>0.41</v>
       </c>
-      <c r="F2">
-        <v>0.36</v>
-      </c>
       <c r="G2">
-        <v>0.22</v>
-      </c>
-      <c r="H2" s="67">
-        <v>0.2</v>
+        <v>0.27</v>
+      </c>
+      <c r="H2">
+        <v>0.46</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>H2-C2</f>
-        <v>-0.22999999999999998</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="K2">
         <f>AVERAGE(C2:I2)</f>
-        <v>0.29285714285714282</v>
+        <v>0.40142857142857141</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67">
-        <v>0.39933110367892977</v>
-      </c>
-      <c r="D3" s="67">
-        <v>0.37</v>
-      </c>
-      <c r="E3" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.31129359573363535</v>
-      </c>
-      <c r="G3" s="67">
-        <v>0.1830152389406717</v>
-      </c>
-      <c r="H3" s="67">
-        <v>0.23613689371221858</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.53</v>
+      </c>
+      <c r="D3">
+        <v>0.54</v>
+      </c>
+      <c r="E3">
+        <v>0.49</v>
+      </c>
+      <c r="F3">
+        <v>0.38</v>
+      </c>
+      <c r="G3">
+        <v>0.23</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
         <f>H3-C3</f>
-        <v>-0.16319420996671119</v>
+        <v>-0.13</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K23" si="0">AVERAGE(C3:I3)</f>
-        <v>0.26139669029506502</v>
+        <f>AVERAGE(C3:I3)</f>
+        <v>0.3671428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="67">
-        <v>0.43727694503925768</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.34</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.37546090273363003</v>
-      </c>
-      <c r="G4" s="67">
-        <v>0.22423836064199806</v>
-      </c>
-      <c r="H4" s="67">
-        <v>0.19766852508869742</v>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.54</v>
+      </c>
+      <c r="D4">
+        <v>0.54</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.35</v>
+      </c>
+      <c r="G4">
+        <v>0.21</v>
+      </c>
+      <c r="H4">
+        <v>0.39</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <f>H4-C4</f>
-        <v>-0.23960841995056026</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.28637781907194043</v>
+        <f>AVERAGE(C4:I4)</f>
+        <v>0.36142857142857149</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3510,156 +3510,156 @@
         <v>-0.26798641905453652</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C5:I5)</f>
         <v>0.35127751183940864</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="67">
-        <v>0.4619113284024905</v>
-      </c>
-      <c r="D6" s="67">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.48</v>
+      </c>
+      <c r="D6">
+        <v>0.49</v>
+      </c>
+      <c r="E6">
         <v>0.43</v>
       </c>
-      <c r="E6" s="67">
+      <c r="F6">
         <v>0.32</v>
       </c>
-      <c r="F6" s="67">
-        <v>0.40919757759273279</v>
-      </c>
-      <c r="G6" s="67">
-        <v>0.24488290614051264</v>
-      </c>
-      <c r="H6" s="67">
-        <v>0.22129460201280879</v>
+      <c r="G6">
+        <v>0.21</v>
+      </c>
+      <c r="H6">
+        <v>0.34</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f>H6-C6</f>
-        <v>-0.24061672638968171</v>
+        <v>-0.13999999999999996</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.29818377344979208</v>
+        <f>AVERAGE(C6:I6)</f>
+        <v>0.32428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="67">
-        <v>0.38984107198504209</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.32399940632266361</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.17690961498867613</v>
-      </c>
-      <c r="H7" s="67">
-        <v>0.15909821141694333</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.51</v>
+      </c>
+      <c r="D7">
+        <v>0.48</v>
+      </c>
+      <c r="E7">
+        <v>0.41</v>
+      </c>
+      <c r="F7">
+        <v>0.31</v>
+      </c>
+      <c r="G7">
+        <v>0.23</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f>H7-C7</f>
-        <v>-0.23074286056809876</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.25854975781618933</v>
+        <f>AVERAGE(C7:I7)</f>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="67">
-        <v>0.39543664706834242</v>
-      </c>
-      <c r="D8" s="67">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.47</v>
+      </c>
+      <c r="D8">
+        <v>0.45</v>
+      </c>
+      <c r="E8">
         <v>0.41</v>
       </c>
-      <c r="E8" s="67">
-        <v>0.36</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0.31275340005132152</v>
-      </c>
-      <c r="G8" s="67">
-        <v>0.16737127371273713</v>
-      </c>
-      <c r="H8" s="67">
-        <v>0.13870932988580048</v>
+      <c r="F8">
+        <v>0.35</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
         <f>H8-C8</f>
-        <v>-0.25672731718254194</v>
+        <v>-0.12</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.25489580724545735</v>
+        <f>AVERAGE(C8:I8)</f>
+        <v>0.31857142857142851</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="67">
-        <v>0.37909814872272213</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0.47</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0.35</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0.30687342018277269</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.16116914526835796</v>
-      </c>
-      <c r="H9" s="67">
-        <v>0.13515319761464117</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.45</v>
+      </c>
+      <c r="D9">
+        <v>0.46</v>
+      </c>
+      <c r="E9">
+        <v>0.41</v>
+      </c>
+      <c r="F9">
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.33</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <f>H9-C9</f>
-        <v>-0.24394495110808095</v>
+        <v>-0.12</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.25747055882692765</v>
+        <f>AVERAGE(C9:I9)</f>
+        <v>0.30714285714285711</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3667,110 +3667,110 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
         <v>0.46</v>
       </c>
       <c r="E10">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H10">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
         <f>H10-C10</f>
-        <v>-0.12</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0.30714285714285711</v>
+        <f>AVERAGE(C10:I10)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.51</v>
-      </c>
-      <c r="D11">
-        <v>0.48</v>
-      </c>
-      <c r="E11">
-        <v>0.41</v>
-      </c>
-      <c r="F11">
-        <v>0.31</v>
-      </c>
-      <c r="G11">
-        <v>0.23</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="67">
+        <v>0.4619113284024905</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0.40919757759273279</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0.24488290614051264</v>
+      </c>
+      <c r="H11" s="67">
+        <v>0.22129460201280879</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
         <f>H11-C11</f>
-        <v>-0.21000000000000002</v>
+        <v>-0.24061672638968171</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.31999999999999995</v>
+        <f>AVERAGE(C11:I11)</f>
+        <v>0.29818377344979208</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="D12">
-        <v>0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="E12">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="F12">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="G12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.27</v>
+        <v>0.22</v>
+      </c>
+      <c r="H12" s="67">
+        <v>0.2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
         <f>H12-C12</f>
-        <v>-2.9999999999999971E-2</v>
+        <v>-0.22999999999999998</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0.21857142857142861</v>
+        <f>AVERAGE(C12:I12)</f>
+        <v>0.29285714285714282</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3778,73 +3778,73 @@
         <v>134</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="D13">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="E13">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="F13">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G13">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="H13">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
         <f>H13-C13</f>
-        <v>-0.10999999999999999</v>
+        <v>-0.26</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0.26428571428571429</v>
+        <f>AVERAGE(C13:I13)</f>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>0.49</v>
-      </c>
-      <c r="D14">
-        <v>0.47</v>
-      </c>
-      <c r="E14">
-        <v>0.39</v>
-      </c>
-      <c r="F14">
-        <v>0.24</v>
-      </c>
-      <c r="G14">
-        <v>0.21</v>
-      </c>
-      <c r="H14">
-        <v>0.23</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="67">
+        <v>0.43727694503925768</v>
+      </c>
+      <c r="D14" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="F14" s="67">
+        <v>0.37546090273363003</v>
+      </c>
+      <c r="G14" s="67">
+        <v>0.22423836064199806</v>
+      </c>
+      <c r="H14" s="67">
+        <v>0.19766852508869742</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
         <f>H14-C14</f>
-        <v>-0.26</v>
+        <v>-0.23960841995056026</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0.29000000000000004</v>
+        <f>AVERAGE(C14:I14)</f>
+        <v>0.28637781907194043</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3852,36 +3852,36 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E15">
         <v>0.37</v>
       </c>
       <c r="F15">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G15">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H15">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
         <f>H15-C15</f>
-        <v>-0.13</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0.25571428571428573</v>
+        <f>AVERAGE(C15:I15)</f>
+        <v>0.28285714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3889,147 +3889,147 @@
         <v>134</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="D16">
+        <v>0.41</v>
+      </c>
+      <c r="E16">
         <v>0.35</v>
       </c>
-      <c r="E16">
-        <v>0.26</v>
-      </c>
       <c r="F16">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H16">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
         <f>H16-C16</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-0.10999999999999999</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0.2314285714285714</v>
+        <f>AVERAGE(C16:I16)</f>
+        <v>0.26428571428571429</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0.44</v>
-      </c>
-      <c r="D17">
-        <v>0.46</v>
-      </c>
-      <c r="E17">
-        <v>0.39</v>
-      </c>
-      <c r="F17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G17">
-        <v>0.19</v>
-      </c>
-      <c r="H17">
-        <v>0.34</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="67">
+        <v>0.39933110367892977</v>
+      </c>
+      <c r="D17" s="67">
+        <v>0.37</v>
+      </c>
+      <c r="E17" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F17" s="67">
+        <v>0.31129359573363535</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.1830152389406717</v>
+      </c>
+      <c r="H17" s="67">
+        <v>0.23613689371221858</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
         <f>H17-C17</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.16319420996671119</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>AVERAGE(C17:I17)</f>
+        <v>0.26139669029506502</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0.47</v>
-      </c>
-      <c r="D18">
-        <v>0.45</v>
-      </c>
-      <c r="E18">
-        <v>0.41</v>
-      </c>
-      <c r="F18">
-        <v>0.35</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <v>0.35</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0.38984107198504209</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0.32399940632266361</v>
+      </c>
+      <c r="G18" s="67">
+        <v>0.17690961498867613</v>
+      </c>
+      <c r="H18" s="67">
+        <v>0.15909821141694333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
         <f>H18-C18</f>
-        <v>-0.12</v>
+        <v>-0.23074286056809876</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0.31857142857142851</v>
+        <f>AVERAGE(C18:I18)</f>
+        <v>0.25854975781618933</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>0.48</v>
-      </c>
-      <c r="D19">
-        <v>0.49</v>
-      </c>
-      <c r="E19">
-        <v>0.43</v>
-      </c>
-      <c r="F19">
-        <v>0.32</v>
-      </c>
-      <c r="G19">
-        <v>0.21</v>
-      </c>
-      <c r="H19">
-        <v>0.34</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.37909814872272213</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.47</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0.30687342018277269</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0.16116914526835796</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0.13515319761464117</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
         <f>H19-C19</f>
-        <v>-0.13999999999999996</v>
+        <v>-0.24394495110808095</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0.32428571428571429</v>
+        <f>AVERAGE(C19:I19)</f>
+        <v>0.25747055882692765</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4037,73 +4037,73 @@
         <v>134</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20">
+        <v>0.37</v>
+      </c>
+      <c r="D20">
         <v>0.4</v>
-      </c>
-      <c r="D20">
-        <v>0.45</v>
       </c>
       <c r="E20">
         <v>0.37</v>
       </c>
       <c r="F20">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="G20">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H20">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
         <f>H20-C20</f>
-        <v>-0.10000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0.28285714285714286</v>
+        <f>AVERAGE(C20:I20)</f>
+        <v>0.25571428571428573</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>0.54</v>
-      </c>
-      <c r="D21">
-        <v>0.54</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-      <c r="F21">
-        <v>0.35</v>
-      </c>
-      <c r="G21">
-        <v>0.21</v>
-      </c>
-      <c r="H21">
-        <v>0.39</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="67">
+        <v>0.39543664706834242</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0.41</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0.36</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0.31275340005132152</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0.16737127371273713</v>
+      </c>
+      <c r="H21" s="67">
+        <v>0.13870932988580048</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
         <f>H21-C21</f>
-        <v>-0.15000000000000002</v>
+        <v>-0.25672731718254194</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0.36142857142857149</v>
+        <f>AVERAGE(C21:I21)</f>
+        <v>0.25489580724545735</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4111,36 +4111,36 @@
         <v>134</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="D22">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="E22">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="F22">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="G22">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H22">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
         <f>H22-C22</f>
-        <v>-0.13</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0.3671428571428571</v>
+        <f>AVERAGE(C22:I22)</f>
+        <v>0.2314285714285714</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4148,41 +4148,41 @@
         <v>134</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="D23">
-        <v>0.6</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E23">
-        <v>0.51</v>
+        <v>0.27</v>
       </c>
       <c r="F23">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="G23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H23">
         <v>0.27</v>
-      </c>
-      <c r="H23">
-        <v>0.46</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
         <f>H23-C23</f>
-        <v>-0.10000000000000003</v>
+        <v>-2.9999999999999971E-2</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0.40142857142857141</v>
+        <f>AVERAGE(C23:I23)</f>
+        <v>0.21857142857142861</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J23">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:K23">
+    <sortCondition descending="1" ref="K1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="220" windowWidth="24440" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="5700" yWindow="4460" windowWidth="24440" windowHeight="18020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="turnout_summary" sheetId="8" r:id="rId1"/>
@@ -862,14 +862,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -3326,7 +3326,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3368,113 +3368,113 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.56000000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="E2">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="F2">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="G2">
-        <v>0.27</v>
-      </c>
-      <c r="H2">
-        <v>0.46</v>
+        <v>0.22</v>
+      </c>
+      <c r="H2" s="67">
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>H2-C2</f>
-        <v>-0.10000000000000003</v>
+        <v>-0.22999999999999998</v>
       </c>
       <c r="K2">
         <f>AVERAGE(C2:I2)</f>
-        <v>0.40142857142857141</v>
+        <v>0.29285714285714282</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.53</v>
-      </c>
-      <c r="D3">
-        <v>0.54</v>
-      </c>
-      <c r="E3">
-        <v>0.49</v>
-      </c>
-      <c r="F3">
-        <v>0.38</v>
-      </c>
-      <c r="G3">
-        <v>0.23</v>
-      </c>
-      <c r="H3">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="67">
+        <v>0.39933110367892977</v>
+      </c>
+      <c r="D3" s="67">
+        <v>0.37</v>
+      </c>
+      <c r="E3" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0.31129359573363535</v>
+      </c>
+      <c r="G3" s="67">
+        <v>0.1830152389406717</v>
+      </c>
+      <c r="H3" s="67">
+        <v>0.23613689371221858</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
         <f>H3-C3</f>
-        <v>-0.13</v>
+        <v>-0.16319420996671119</v>
       </c>
       <c r="K3">
         <f>AVERAGE(C3:I3)</f>
-        <v>0.3671428571428571</v>
+        <v>0.26139669029506502</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.54</v>
-      </c>
-      <c r="D4">
-        <v>0.54</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>0.35</v>
-      </c>
-      <c r="G4">
-        <v>0.21</v>
-      </c>
-      <c r="H4">
-        <v>0.39</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="67">
+        <v>0.43727694503925768</v>
+      </c>
+      <c r="D4" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.37546090273363003</v>
+      </c>
+      <c r="G4" s="67">
+        <v>0.22423836064199806</v>
+      </c>
+      <c r="H4" s="67">
+        <v>0.19766852508869742</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <f>H4-C4</f>
-        <v>-0.15000000000000002</v>
+        <v>-0.23960841995056026</v>
       </c>
       <c r="K4">
         <f>AVERAGE(C4:I4)</f>
-        <v>0.36142857142857149</v>
+        <v>0.28637781907194043</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3516,150 +3516,150 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.48</v>
-      </c>
-      <c r="D6">
-        <v>0.49</v>
-      </c>
-      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="67">
+        <v>0.4619113284024905</v>
+      </c>
+      <c r="D6" s="67">
         <v>0.43</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="67">
         <v>0.32</v>
       </c>
-      <c r="G6">
-        <v>0.21</v>
-      </c>
-      <c r="H6">
-        <v>0.34</v>
+      <c r="F6" s="67">
+        <v>0.40919757759273279</v>
+      </c>
+      <c r="G6" s="67">
+        <v>0.24488290614051264</v>
+      </c>
+      <c r="H6" s="67">
+        <v>0.22129460201280879</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f>H6-C6</f>
-        <v>-0.13999999999999996</v>
+        <v>-0.24061672638968171</v>
       </c>
       <c r="K6">
         <f>AVERAGE(C6:I6)</f>
-        <v>0.32428571428571429</v>
+        <v>0.29818377344979208</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0.51</v>
-      </c>
-      <c r="D7">
-        <v>0.48</v>
-      </c>
-      <c r="E7">
-        <v>0.41</v>
-      </c>
-      <c r="F7">
-        <v>0.31</v>
-      </c>
-      <c r="G7">
-        <v>0.23</v>
-      </c>
-      <c r="H7">
-        <v>0.3</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="67">
+        <v>0.38984107198504209</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.32399940632266361</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0.17690961498867613</v>
+      </c>
+      <c r="H7" s="67">
+        <v>0.15909821141694333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f>H7-C7</f>
-        <v>-0.21000000000000002</v>
+        <v>-0.23074286056809876</v>
       </c>
       <c r="K7">
         <f>AVERAGE(C7:I7)</f>
-        <v>0.31999999999999995</v>
+        <v>0.25854975781618933</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.47</v>
-      </c>
-      <c r="D8">
-        <v>0.45</v>
-      </c>
-      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="67">
+        <v>0.39543664706834242</v>
+      </c>
+      <c r="D8" s="67">
         <v>0.41</v>
       </c>
-      <c r="F8">
-        <v>0.35</v>
-      </c>
-      <c r="G8">
-        <v>0.2</v>
-      </c>
-      <c r="H8">
-        <v>0.35</v>
+      <c r="E8" s="67">
+        <v>0.36</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0.31275340005132152</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0.16737127371273713</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.13870932988580048</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
         <f>H8-C8</f>
-        <v>-0.12</v>
+        <v>-0.25672731718254194</v>
       </c>
       <c r="K8">
         <f>AVERAGE(C8:I8)</f>
-        <v>0.31857142857142851</v>
+        <v>0.25489580724545735</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0.45</v>
-      </c>
-      <c r="D9">
-        <v>0.46</v>
-      </c>
-      <c r="E9">
-        <v>0.41</v>
-      </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.33</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="67">
+        <v>0.37909814872272213</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0.47</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0.30687342018277269</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0.16116914526835796</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.13515319761464117</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <f>H9-C9</f>
-        <v>-0.12</v>
+        <v>-0.24394495110808095</v>
       </c>
       <c r="K9">
         <f>AVERAGE(C9:I9)</f>
-        <v>0.30714285714285711</v>
+        <v>0.25747055882692765</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3667,110 +3667,110 @@
         <v>134</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D10">
         <v>0.46</v>
       </c>
       <c r="E10">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="F10">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="G10">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
         <f>H10-C10</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="K10">
         <f>AVERAGE(C10:I10)</f>
-        <v>0.3</v>
+        <v>0.30714285714285711</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="67">
-        <v>0.4619113284024905</v>
-      </c>
-      <c r="D11" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="67">
-        <v>0.32</v>
-      </c>
-      <c r="F11" s="67">
-        <v>0.40919757759273279</v>
-      </c>
-      <c r="G11" s="67">
-        <v>0.24488290614051264</v>
-      </c>
-      <c r="H11" s="67">
-        <v>0.22129460201280879</v>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.51</v>
+      </c>
+      <c r="D11">
+        <v>0.48</v>
+      </c>
+      <c r="E11">
+        <v>0.41</v>
+      </c>
+      <c r="F11">
+        <v>0.31</v>
+      </c>
+      <c r="G11">
+        <v>0.23</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
         <f>H11-C11</f>
-        <v>-0.24061672638968171</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="K11">
         <f>AVERAGE(C11:I11)</f>
-        <v>0.29818377344979208</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="D12">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E12">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="F12">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="G12">
-        <v>0.22</v>
-      </c>
-      <c r="H12" s="67">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.27</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
         <f>H12-C12</f>
-        <v>-0.22999999999999998</v>
+        <v>-2.9999999999999971E-2</v>
       </c>
       <c r="K12">
         <f>AVERAGE(C12:I12)</f>
-        <v>0.29285714285714282</v>
+        <v>0.21857142857142861</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3778,73 +3778,73 @@
         <v>134</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="D13">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="E13">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="F13">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="G13">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H13">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
         <f>H13-C13</f>
-        <v>-0.26</v>
+        <v>-0.10999999999999999</v>
       </c>
       <c r="K13">
         <f>AVERAGE(C13:I13)</f>
-        <v>0.29000000000000004</v>
+        <v>0.26428571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="67">
-        <v>0.43727694503925768</v>
-      </c>
-      <c r="D14" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E14" s="67">
-        <v>0.34</v>
-      </c>
-      <c r="F14" s="67">
-        <v>0.37546090273363003</v>
-      </c>
-      <c r="G14" s="67">
-        <v>0.22423836064199806</v>
-      </c>
-      <c r="H14" s="67">
-        <v>0.19766852508869742</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.49</v>
+      </c>
+      <c r="D14">
+        <v>0.47</v>
+      </c>
+      <c r="E14">
+        <v>0.39</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+      <c r="G14">
+        <v>0.21</v>
+      </c>
+      <c r="H14">
+        <v>0.23</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
         <f>H14-C14</f>
-        <v>-0.23960841995056026</v>
+        <v>-0.26</v>
       </c>
       <c r="K14">
         <f>AVERAGE(C14:I14)</f>
-        <v>0.28637781907194043</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3852,36 +3852,36 @@
         <v>134</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15">
+        <v>0.37</v>
+      </c>
+      <c r="D15">
         <v>0.4</v>
-      </c>
-      <c r="D15">
-        <v>0.45</v>
       </c>
       <c r="E15">
         <v>0.37</v>
       </c>
       <c r="F15">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="G15">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H15">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
         <f>H15-C15</f>
-        <v>-0.10000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="K15">
         <f>AVERAGE(C15:I15)</f>
-        <v>0.28285714285714286</v>
+        <v>0.25571428571428573</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3889,147 +3889,147 @@
         <v>134</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="D16">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E16">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="F16">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H16">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
         <f>H16-C16</f>
-        <v>-0.10999999999999999</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="K16">
         <f>AVERAGE(C16:I16)</f>
-        <v>0.26428571428571429</v>
+        <v>0.2314285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="67">
-        <v>0.39933110367892977</v>
-      </c>
-      <c r="D17" s="67">
-        <v>0.37</v>
-      </c>
-      <c r="E17" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F17" s="67">
-        <v>0.31129359573363535</v>
-      </c>
-      <c r="G17" s="67">
-        <v>0.1830152389406717</v>
-      </c>
-      <c r="H17" s="67">
-        <v>0.23613689371221858</v>
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0.44</v>
+      </c>
+      <c r="D17">
+        <v>0.46</v>
+      </c>
+      <c r="E17">
+        <v>0.39</v>
+      </c>
+      <c r="F17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.19</v>
+      </c>
+      <c r="H17">
+        <v>0.34</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
         <f>H17-C17</f>
-        <v>-0.16319420996671119</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="K17">
         <f>AVERAGE(C17:I17)</f>
-        <v>0.26139669029506502</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="67">
-        <v>0.38984107198504209</v>
-      </c>
-      <c r="D18" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E18" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F18" s="67">
-        <v>0.32399940632266361</v>
-      </c>
-      <c r="G18" s="67">
-        <v>0.17690961498867613</v>
-      </c>
-      <c r="H18" s="67">
-        <v>0.15909821141694333</v>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0.47</v>
+      </c>
+      <c r="D18">
+        <v>0.45</v>
+      </c>
+      <c r="E18">
+        <v>0.41</v>
+      </c>
+      <c r="F18">
+        <v>0.35</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.35</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
         <f>H18-C18</f>
-        <v>-0.23074286056809876</v>
+        <v>-0.12</v>
       </c>
       <c r="K18">
         <f>AVERAGE(C18:I18)</f>
-        <v>0.25854975781618933</v>
+        <v>0.31857142857142851</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" s="67">
-        <v>0.37909814872272213</v>
-      </c>
-      <c r="D19" s="67">
-        <v>0.47</v>
-      </c>
-      <c r="E19" s="67">
-        <v>0.35</v>
-      </c>
-      <c r="F19" s="67">
-        <v>0.30687342018277269</v>
-      </c>
-      <c r="G19" s="67">
-        <v>0.16116914526835796</v>
-      </c>
-      <c r="H19" s="67">
-        <v>0.13515319761464117</v>
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.48</v>
+      </c>
+      <c r="D19">
+        <v>0.49</v>
+      </c>
+      <c r="E19">
+        <v>0.43</v>
+      </c>
+      <c r="F19">
+        <v>0.32</v>
+      </c>
+      <c r="G19">
+        <v>0.21</v>
+      </c>
+      <c r="H19">
+        <v>0.34</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
         <f>H19-C19</f>
-        <v>-0.24394495110808095</v>
+        <v>-0.13999999999999996</v>
       </c>
       <c r="K19">
         <f>AVERAGE(C19:I19)</f>
-        <v>0.25747055882692765</v>
+        <v>0.32428571428571429</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4037,73 +4037,73 @@
         <v>134</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E20">
         <v>0.37</v>
       </c>
       <c r="F20">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G20">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H20">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
         <f>H20-C20</f>
-        <v>-0.13</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="K20">
         <f>AVERAGE(C20:I20)</f>
-        <v>0.25571428571428573</v>
+        <v>0.28285714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" s="67">
-        <v>0.39543664706834242</v>
-      </c>
-      <c r="D21" s="67">
-        <v>0.41</v>
-      </c>
-      <c r="E21" s="67">
-        <v>0.36</v>
-      </c>
-      <c r="F21" s="67">
-        <v>0.31275340005132152</v>
-      </c>
-      <c r="G21" s="67">
-        <v>0.16737127371273713</v>
-      </c>
-      <c r="H21" s="67">
-        <v>0.13870932988580048</v>
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>0.54</v>
+      </c>
+      <c r="D21">
+        <v>0.54</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.35</v>
+      </c>
+      <c r="G21">
+        <v>0.21</v>
+      </c>
+      <c r="H21">
+        <v>0.39</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
         <f>H21-C21</f>
-        <v>-0.25672731718254194</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="K21">
         <f>AVERAGE(C21:I21)</f>
-        <v>0.25489580724545735</v>
+        <v>0.36142857142857149</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4111,36 +4111,36 @@
         <v>134</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="D22">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="E22">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="F22">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="G22">
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H22">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
         <f>H22-C22</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="K22">
         <f>AVERAGE(C22:I22)</f>
-        <v>0.2314285714285714</v>
+        <v>0.3671428571428571</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4148,41 +4148,41 @@
         <v>134</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D23">
-        <v>0.28999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E23">
+        <v>0.51</v>
+      </c>
+      <c r="F23">
+        <v>0.41</v>
+      </c>
+      <c r="G23">
         <v>0.27</v>
       </c>
-      <c r="F23">
-        <v>0.26</v>
-      </c>
-      <c r="G23">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="H23">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
         <f>H23-C23</f>
-        <v>-2.9999999999999971E-2</v>
+        <v>-0.10000000000000003</v>
       </c>
       <c r="K23">
         <f>AVERAGE(C23:I23)</f>
-        <v>0.21857142857142861</v>
+        <v>0.40142857142857141</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K23">
-    <sortCondition descending="1" ref="K1"/>
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13283,36 +13283,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="15"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="17">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="13"/>
       <c r="M2" s="16"/>
     </row>
@@ -13837,10 +13837,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="13">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="10">
         <f t="shared" ref="C15:I15" si="6">SUM(C6:C14)</f>
         <v>18836</v>
@@ -14362,10 +14362,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="10">
         <f t="shared" ref="C27:I27" si="7">SUM(C17:C26)</f>
         <v>18196</v>
@@ -14841,10 +14841,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="13">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="10">
         <f t="shared" ref="C38:I38" si="12">SUM(C29:C37)</f>
         <v>19364</v>
@@ -15274,10 +15274,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="13">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="69"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="10">
         <f t="shared" ref="C48:I48" si="13">SUM(C40:C47)</f>
         <v>16899</v>
@@ -15707,10 +15707,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="13">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="69"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="10">
         <f t="shared" ref="C58:I58" si="14">SUM(C50:C57)</f>
         <v>15013</v>
@@ -16186,10 +16186,10 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="13">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="69"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="10">
         <f t="shared" ref="C69:I69" si="15">SUM(C60:C68)</f>
         <v>14026</v>
@@ -16711,10 +16711,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="13">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="69"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="10">
         <f t="shared" ref="C81:I81" si="17">SUM(C71:C80)</f>
         <v>19178</v>
@@ -17144,10 +17144,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="13">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="69"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="10">
         <f t="shared" ref="C91:I91" si="18">SUM(C83:C90)</f>
         <v>16859</v>
@@ -17577,10 +17577,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="13">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="69"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="42">
         <f t="shared" ref="C101:I101" si="23">SUM(C93:C100)</f>
         <v>12138</v>
@@ -18056,10 +18056,10 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="13">
-      <c r="A112" s="69" t="s">
+      <c r="A112" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="69"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="10">
         <f t="shared" ref="C112:I112" si="24">SUM(C103:C111)</f>
         <v>18616</v>
@@ -18581,10 +18581,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="13">
-      <c r="A124" s="69" t="s">
+      <c r="A124" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="69"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="10">
         <f t="shared" ref="C124:I124" si="25">SUM(C114:C123)</f>
         <v>19720</v>
@@ -19106,10 +19106,10 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="13">
-      <c r="A136" s="69" t="s">
+      <c r="A136" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="69"/>
+      <c r="B136" s="71"/>
       <c r="C136" s="10">
         <f t="shared" ref="C136:I136" si="27">SUM(C126:C135)</f>
         <v>21660</v>
@@ -19585,10 +19585,10 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="13">
-      <c r="A147" s="69" t="s">
+      <c r="A147" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="69"/>
+      <c r="B147" s="71"/>
       <c r="C147" s="10">
         <f t="shared" ref="C147:I147" si="28">SUM(C138:C146)</f>
         <v>22846</v>
@@ -20191,11 +20191,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A147:B147"/>
@@ -20206,6 +20201,11 @@
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="4460" windowWidth="24440" windowHeight="18020" activeTab="2"/>
+    <workbookView xWindow="4980" yWindow="2180" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="turnout_summary" sheetId="8" r:id="rId1"/>
@@ -492,7 +492,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -592,6 +592,11 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -643,7 +648,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,8 +718,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +884,7 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,8 +895,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="87">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -907,6 +932,15 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -940,6 +974,15 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1338,20 +1381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:8">
       <c r="A1" s="60" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1374,52 +1417,55 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="69">
         <v>222101</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="69">
         <v>200311</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="69">
         <v>217802</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="69">
         <v>229593</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="69">
         <v>231078</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="69">
         <v>233351</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="1:16" ht="15">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="1:16" ht="15">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="66">
+        <v>239750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="62">
         <v>1</v>
       </c>
@@ -1441,8 +1487,11 @@
       <c r="G8" s="63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15">
+      <c r="H8" s="68">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="62">
         <v>2</v>
       </c>
@@ -1464,29 +1513,11 @@
       <c r="G9" s="63">
         <v>0.27</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0.51</v>
-      </c>
-      <c r="L9">
-        <v>0.48</v>
-      </c>
-      <c r="M9">
-        <v>0.41</v>
-      </c>
-      <c r="N9">
-        <v>0.31</v>
-      </c>
-      <c r="O9">
-        <v>0.23</v>
-      </c>
-      <c r="P9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15">
+      <c r="H9" s="68">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="62">
         <v>3</v>
       </c>
@@ -1508,29 +1539,11 @@
       <c r="G10" s="63">
         <v>0.31</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0.3</v>
-      </c>
-      <c r="L10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M10">
-        <v>0.27</v>
-      </c>
-      <c r="N10">
-        <v>0.26</v>
-      </c>
-      <c r="O10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P10">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15">
+      <c r="H10" s="68">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="62">
         <v>4</v>
       </c>
@@ -1552,29 +1565,11 @@
       <c r="G11" s="63">
         <v>0.23</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>0.42</v>
-      </c>
-      <c r="L11">
-        <v>0.41</v>
-      </c>
-      <c r="M11">
-        <v>0.35</v>
-      </c>
-      <c r="N11">
-        <v>0.22</v>
-      </c>
-      <c r="O11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P11">
+      <c r="H11" s="68">
         <v>0.31</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="62">
         <v>5</v>
       </c>
@@ -1596,29 +1591,11 @@
       <c r="G12" s="63">
         <v>0.24</v>
       </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>0.49</v>
-      </c>
-      <c r="L12">
-        <v>0.47</v>
-      </c>
-      <c r="M12">
-        <v>0.39</v>
-      </c>
-      <c r="N12">
-        <v>0.24</v>
-      </c>
-      <c r="O12">
-        <v>0.21</v>
-      </c>
-      <c r="P12">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15">
+      <c r="H12" s="68">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="62">
         <v>6</v>
       </c>
@@ -1640,29 +1617,11 @@
       <c r="G13" s="63">
         <v>0.34</v>
       </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>0.37</v>
-      </c>
-      <c r="L13">
-        <v>0.4</v>
-      </c>
-      <c r="M13">
-        <v>0.37</v>
-      </c>
-      <c r="N13">
-        <v>0.24</v>
-      </c>
-      <c r="O13">
-        <v>0.17</v>
-      </c>
-      <c r="P13">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15">
+      <c r="H13" s="68">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="62">
         <v>7</v>
       </c>
@@ -1684,29 +1643,11 @@
       <c r="G14" s="63">
         <v>0.34</v>
       </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>0.32</v>
-      </c>
-      <c r="L14">
-        <v>0.35</v>
-      </c>
-      <c r="M14">
-        <v>0.26</v>
-      </c>
-      <c r="N14">
-        <v>0.21</v>
-      </c>
-      <c r="O14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15">
+      <c r="H14" s="68">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="62">
         <v>8</v>
       </c>
@@ -1728,29 +1669,11 @@
       <c r="G15" s="63">
         <v>0.35</v>
       </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <v>0.44</v>
-      </c>
-      <c r="L15">
+      <c r="H15" s="68">
         <v>0.46</v>
       </c>
-      <c r="M15">
-        <v>0.39</v>
-      </c>
-      <c r="N15">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O15">
-        <v>0.19</v>
-      </c>
-      <c r="P15">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15">
+    </row>
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" s="62">
         <v>9</v>
       </c>
@@ -1772,29 +1695,11 @@
       <c r="G16" s="63">
         <v>0.34</v>
       </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>0.47</v>
-      </c>
-      <c r="L16">
-        <v>0.45</v>
-      </c>
-      <c r="M16">
-        <v>0.41</v>
-      </c>
-      <c r="N16">
-        <v>0.35</v>
-      </c>
-      <c r="O16">
-        <v>0.2</v>
-      </c>
-      <c r="P16">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15">
+      <c r="H16" s="68">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="62">
         <v>10</v>
       </c>
@@ -1816,29 +1721,11 @@
       <c r="G17" s="63">
         <v>0.3</v>
       </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>0.48</v>
-      </c>
-      <c r="L17">
-        <v>0.49</v>
-      </c>
-      <c r="M17">
-        <v>0.43</v>
-      </c>
-      <c r="N17">
-        <v>0.32</v>
-      </c>
-      <c r="O17">
-        <v>0.21</v>
-      </c>
-      <c r="P17">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15">
+      <c r="H17" s="68">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="62">
         <v>11</v>
       </c>
@@ -1860,29 +1747,11 @@
       <c r="G18" s="63">
         <v>0.39</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>0.4</v>
-      </c>
-      <c r="L18">
-        <v>0.45</v>
-      </c>
-      <c r="M18">
-        <v>0.37</v>
-      </c>
-      <c r="N18">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O18">
-        <v>0.18</v>
-      </c>
-      <c r="P18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="64" customFormat="1" ht="15">
+      <c r="H18" s="68">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="64" customFormat="1" ht="15">
       <c r="A19" s="62">
         <v>12</v>
       </c>
@@ -1904,29 +1773,11 @@
       <c r="G19" s="63">
         <v>0.4</v>
       </c>
-      <c r="J19" s="64">
-        <v>11</v>
-      </c>
-      <c r="K19" s="64">
-        <v>0.54</v>
-      </c>
-      <c r="L19" s="64">
-        <v>0.54</v>
-      </c>
-      <c r="M19" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="N19" s="64">
-        <v>0.35</v>
-      </c>
-      <c r="O19" s="64">
-        <v>0.21</v>
-      </c>
-      <c r="P19" s="64">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15">
+      <c r="H19" s="68">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="62">
         <v>13</v>
       </c>
@@ -1948,29 +1799,11 @@
       <c r="G20" s="63">
         <v>0.46</v>
       </c>
-      <c r="J20">
-        <v>12</v>
-      </c>
-      <c r="K20">
-        <v>0.53</v>
-      </c>
-      <c r="L20">
-        <v>0.54</v>
-      </c>
-      <c r="M20">
-        <v>0.49</v>
-      </c>
-      <c r="N20">
-        <v>0.38</v>
-      </c>
-      <c r="O20">
-        <v>0.23</v>
-      </c>
-      <c r="P20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15">
+      <c r="H20" s="68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="62" t="s">
         <v>97</v>
       </c>
@@ -1992,29 +1825,11 @@
       <c r="G21" s="63">
         <v>0.33</v>
       </c>
-      <c r="J21">
-        <v>13</v>
-      </c>
-      <c r="K21">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L21">
-        <v>0.6</v>
-      </c>
-      <c r="M21">
-        <v>0.51</v>
-      </c>
-      <c r="N21">
-        <v>0.41</v>
-      </c>
-      <c r="O21">
-        <v>0.27</v>
-      </c>
-      <c r="P21">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13">
+      <c r="H21" s="68">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13">
       <c r="A22" s="64" t="s">
         <v>103</v>
       </c>
@@ -2036,23 +1851,26 @@
       <c r="G22" s="65">
         <v>80099</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="H22" s="66">
+        <v>105928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2526,7 +2344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="B49">
         <v>1993</v>
       </c>
@@ -2564,7 +2382,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2605,7 +2423,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -2646,7 +2464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -2687,7 +2505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2728,12 +2546,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="B56">
         <v>1993</v>
       </c>
@@ -2770,8 +2588,11 @@
       <c r="M56">
         <v>2015</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="14">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2811,8 +2632,11 @@
       <c r="M57" s="66">
         <v>150676</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="73">
+        <v>156543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -2853,7 +2677,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -2894,7 +2718,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -2935,7 +2759,7 @@
         <v>27923</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2987,8 +2811,11 @@
         <f t="shared" si="0"/>
         <v>0.18374504823447349</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N61">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -3016,7 +2843,7 @@
         <v>0.23613689371221858</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -3325,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3368,298 +3195,298 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D2">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="E2">
+        <v>0.51</v>
+      </c>
+      <c r="F2">
         <v>0.41</v>
       </c>
-      <c r="F2">
-        <v>0.36</v>
-      </c>
       <c r="G2">
-        <v>0.22</v>
-      </c>
-      <c r="H2" s="67">
-        <v>0.2</v>
+        <v>0.27</v>
+      </c>
+      <c r="H2">
+        <v>0.46</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>H2-C2</f>
-        <v>-0.22999999999999998</v>
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="67">
+        <f t="shared" ref="J2:J23" si="0">I2-H2</f>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="K2">
-        <f>AVERAGE(C2:I2)</f>
-        <v>0.29285714285714282</v>
+        <f t="shared" ref="K2:K21" si="1">AVERAGE(C2:I2)</f>
+        <v>0.47285714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67">
-        <v>0.39933110367892977</v>
-      </c>
-      <c r="D3" s="67">
-        <v>0.37</v>
-      </c>
-      <c r="E3" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0.31129359573363535</v>
-      </c>
-      <c r="G3" s="67">
-        <v>0.1830152389406717</v>
-      </c>
-      <c r="H3" s="67">
-        <v>0.23613689371221858</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.32</v>
+      </c>
+      <c r="D3">
+        <v>0.35</v>
+      </c>
+      <c r="E3">
+        <v>0.26</v>
+      </c>
+      <c r="F3">
+        <v>0.21</v>
+      </c>
+      <c r="G3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.34</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>H3-C3</f>
-        <v>-0.16319420996671119</v>
+        <v>0.47</v>
+      </c>
+      <c r="J3" s="67">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999995</v>
       </c>
       <c r="K3">
-        <f>AVERAGE(C3:I3)</f>
-        <v>0.26139669029506502</v>
+        <f t="shared" si="1"/>
+        <v>0.29857142857142854</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="67">
-        <v>0.43727694503925768</v>
-      </c>
-      <c r="D4" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E4" s="67">
-        <v>0.34</v>
-      </c>
-      <c r="F4" s="67">
-        <v>0.37546090273363003</v>
-      </c>
-      <c r="G4" s="67">
-        <v>0.22423836064199806</v>
-      </c>
-      <c r="H4" s="67">
-        <v>0.19766852508869742</v>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.54</v>
+      </c>
+      <c r="D4">
+        <v>0.54</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.35</v>
+      </c>
+      <c r="G4">
+        <v>0.21</v>
+      </c>
+      <c r="H4">
+        <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>H4-C4</f>
-        <v>-0.23960841995056026</v>
+        <v>0.47</v>
+      </c>
+      <c r="J4" s="67">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="K4">
-        <f>AVERAGE(C4:I4)</f>
-        <v>0.28637781907194043</v>
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="67">
-        <v>0.53164213787761427</v>
-      </c>
-      <c r="D5" s="67">
-        <v>0.52</v>
-      </c>
-      <c r="E5" s="67">
-        <v>0.34</v>
-      </c>
-      <c r="F5" s="67">
-        <v>0.49367657221838285</v>
-      </c>
-      <c r="G5" s="67">
-        <v>0.30996815395678529</v>
-      </c>
-      <c r="H5" s="67">
-        <v>0.26365571882307776</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.53</v>
+      </c>
+      <c r="D5">
+        <v>0.54</v>
+      </c>
+      <c r="E5">
+        <v>0.49</v>
+      </c>
+      <c r="F5">
+        <v>0.38</v>
+      </c>
+      <c r="G5">
+        <v>0.23</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>H5-C5</f>
-        <v>-0.26798641905453652</v>
+        <v>0.47</v>
+      </c>
+      <c r="J5" s="67">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999951E-2</v>
       </c>
       <c r="K5">
-        <f>AVERAGE(C5:I5)</f>
-        <v>0.35127751183940864</v>
+        <f t="shared" si="1"/>
+        <v>0.43428571428571427</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="67">
-        <v>0.4619113284024905</v>
-      </c>
-      <c r="D6" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="67">
-        <v>0.32</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0.40919757759273279</v>
-      </c>
-      <c r="G6" s="67">
-        <v>0.24488290614051264</v>
-      </c>
-      <c r="H6" s="67">
-        <v>0.22129460201280879</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.47</v>
+      </c>
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <v>0.41</v>
+      </c>
+      <c r="F6">
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.35</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>H6-C6</f>
-        <v>-0.24061672638968171</v>
+        <v>0.46</v>
+      </c>
+      <c r="J6" s="67">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000004</v>
       </c>
       <c r="K6">
-        <f>AVERAGE(C6:I6)</f>
-        <v>0.29818377344979208</v>
+        <f t="shared" si="1"/>
+        <v>0.38428571428571423</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="67">
-        <v>0.38984107198504209</v>
-      </c>
-      <c r="D7" s="67">
-        <v>0.43</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.33</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0.32399940632266361</v>
-      </c>
-      <c r="G7" s="67">
-        <v>0.17690961498867613</v>
-      </c>
-      <c r="H7" s="67">
-        <v>0.15909821141694333</v>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.44</v>
+      </c>
+      <c r="D7">
+        <v>0.46</v>
+      </c>
+      <c r="E7">
+        <v>0.39</v>
+      </c>
+      <c r="F7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.19</v>
+      </c>
+      <c r="H7">
+        <v>0.34</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>H7-C7</f>
-        <v>-0.23074286056809876</v>
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="67">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
       </c>
       <c r="K7">
-        <f>AVERAGE(C7:I7)</f>
-        <v>0.25854975781618933</v>
+        <f t="shared" si="1"/>
+        <v>0.36428571428571432</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="67">
-        <v>0.39543664706834242</v>
-      </c>
-      <c r="D8" s="67">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.51</v>
+      </c>
+      <c r="D8">
+        <v>0.48</v>
+      </c>
+      <c r="E8">
         <v>0.41</v>
       </c>
-      <c r="E8" s="67">
-        <v>0.36</v>
-      </c>
-      <c r="F8" s="67">
-        <v>0.31275340005132152</v>
-      </c>
-      <c r="G8" s="67">
-        <v>0.16737127371273713</v>
-      </c>
-      <c r="H8" s="67">
-        <v>0.13870932988580048</v>
+      <c r="F8">
+        <v>0.31</v>
+      </c>
+      <c r="G8">
+        <v>0.23</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>H8-C8</f>
-        <v>-0.25672731718254194</v>
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K8">
-        <f>AVERAGE(C8:I8)</f>
-        <v>0.25489580724545735</v>
+        <f t="shared" si="1"/>
+        <v>0.38428571428571429</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="67">
-        <v>0.37909814872272213</v>
-      </c>
-      <c r="D9" s="67">
-        <v>0.47</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0.35</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0.30687342018277269</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.16116914526835796</v>
-      </c>
-      <c r="H9" s="67">
-        <v>0.13515319761464117</v>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0.48</v>
+      </c>
+      <c r="D9">
+        <v>0.49</v>
+      </c>
+      <c r="E9">
+        <v>0.43</v>
+      </c>
+      <c r="F9">
+        <v>0.32</v>
+      </c>
+      <c r="G9">
+        <v>0.21</v>
+      </c>
+      <c r="H9">
+        <v>0.34</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>H9-C9</f>
-        <v>-0.24394495110808095</v>
+        <v>0.43</v>
+      </c>
+      <c r="J9" s="67">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="K9">
-        <f>AVERAGE(C9:I9)</f>
-        <v>0.25747055882692765</v>
+        <f t="shared" si="1"/>
+        <v>0.38571428571428573</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3688,15 +3515,15 @@
         <v>0.33</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>H10-C10</f>
-        <v>-0.12</v>
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="67">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="K10">
-        <f>AVERAGE(C10:I10)</f>
-        <v>0.30714285714285711</v>
+        <f t="shared" si="1"/>
+        <v>0.3671428571428571</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3704,36 +3531,36 @@
         <v>134</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="F11">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="G11">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>H11-C11</f>
-        <v>-0.21000000000000002</v>
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="67">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
       </c>
       <c r="K11">
-        <f>AVERAGE(C11:I11)</f>
-        <v>0.31999999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.27571428571428575</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3741,36 +3568,36 @@
         <v>134</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>0.28999999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="E12">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="F12">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G12">
         <v>0.14000000000000001</v>
       </c>
       <c r="H12">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>H12-C12</f>
-        <v>-2.9999999999999971E-2</v>
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="67">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="K12">
-        <f>AVERAGE(C12:I12)</f>
-        <v>0.21857142857142861</v>
+        <f t="shared" si="1"/>
+        <v>0.32142857142857145</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3778,36 +3605,36 @@
         <v>134</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="E13">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F13">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G13">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H13">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>H13-C13</f>
-        <v>-0.10999999999999999</v>
+        <v>0.38</v>
+      </c>
+      <c r="J13" s="67">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="K13">
-        <f>AVERAGE(C13:I13)</f>
-        <v>0.26428571428571429</v>
+        <f t="shared" si="1"/>
+        <v>0.33714285714285719</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3836,15 +3663,15 @@
         <v>0.23</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>H14-C14</f>
-        <v>-0.26</v>
+        <v>0.31</v>
+      </c>
+      <c r="J14" s="67">
+        <f t="shared" si="0"/>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="K14">
-        <f>AVERAGE(C14:I14)</f>
-        <v>0.29000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.33428571428571435</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3873,316 +3700,316 @@
         <v>0.24</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>H15-C15</f>
-        <v>-0.13</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J15" s="67">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="K15">
-        <f>AVERAGE(C15:I15)</f>
-        <v>0.25571428571428573</v>
+        <f t="shared" si="1"/>
+        <v>0.29571428571428576</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>0.32</v>
-      </c>
-      <c r="D16">
-        <v>0.35</v>
-      </c>
-      <c r="E16">
-        <v>0.26</v>
-      </c>
-      <c r="F16">
-        <v>0.21</v>
-      </c>
-      <c r="G16">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.34</v>
+      <c r="C16" s="67">
+        <v>0.39543664706834242</v>
+      </c>
+      <c r="D16" s="67">
+        <v>0.41</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0.36</v>
+      </c>
+      <c r="F16" s="67">
+        <v>0.31275340005132152</v>
+      </c>
+      <c r="G16" s="67">
+        <v>0.16737127371273713</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0.13870932988580048</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <f>H16-C16</f>
-        <v>2.0000000000000018E-2</v>
+      <c r="J16" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.13870932988580048</v>
       </c>
       <c r="K16">
-        <f>AVERAGE(C16:I16)</f>
-        <v>0.2314285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.25489580724545735</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17">
-        <v>0.44</v>
-      </c>
-      <c r="D17">
-        <v>0.46</v>
-      </c>
-      <c r="E17">
-        <v>0.39</v>
-      </c>
-      <c r="F17">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G17">
-        <v>0.19</v>
-      </c>
-      <c r="H17">
-        <v>0.34</v>
+      <c r="C17" s="67">
+        <v>0.37909814872272213</v>
+      </c>
+      <c r="D17" s="67">
+        <v>0.47</v>
+      </c>
+      <c r="E17" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="F17" s="67">
+        <v>0.30687342018277269</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.16116914526835796</v>
+      </c>
+      <c r="H17" s="67">
+        <v>0.13515319761464117</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <f>H17-C17</f>
-        <v>-9.9999999999999978E-2</v>
+      <c r="J17" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.13515319761464117</v>
       </c>
       <c r="K17">
-        <f>AVERAGE(C17:I17)</f>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.25747055882692765</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0.47</v>
-      </c>
-      <c r="D18">
-        <v>0.45</v>
-      </c>
-      <c r="E18">
-        <v>0.41</v>
-      </c>
-      <c r="F18">
-        <v>0.35</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <v>0.35</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0.38984107198504209</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0.32399940632266361</v>
+      </c>
+      <c r="G18" s="67">
+        <v>0.17690961498867613</v>
+      </c>
+      <c r="H18" s="67">
+        <v>0.15909821141694333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <f>H18-C18</f>
-        <v>-0.12</v>
+      <c r="J18" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.15909821141694333</v>
       </c>
       <c r="K18">
-        <f>AVERAGE(C18:I18)</f>
-        <v>0.31857142857142851</v>
+        <f t="shared" si="1"/>
+        <v>0.25854975781618933</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>0.48</v>
-      </c>
-      <c r="D19">
-        <v>0.49</v>
-      </c>
-      <c r="E19">
-        <v>0.43</v>
-      </c>
-      <c r="F19">
-        <v>0.32</v>
-      </c>
-      <c r="G19">
-        <v>0.21</v>
-      </c>
-      <c r="H19">
-        <v>0.34</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.39933110367892977</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.37</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0.31129359573363535</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0.1830152389406717</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0.23613689371221858</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <f>H19-C19</f>
-        <v>-0.13999999999999996</v>
+      <c r="J19" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.23613689371221858</v>
       </c>
       <c r="K19">
-        <f>AVERAGE(C19:I19)</f>
-        <v>0.32428571428571429</v>
+        <f t="shared" si="1"/>
+        <v>0.26139669029506502</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>0.4</v>
-      </c>
-      <c r="D20">
-        <v>0.45</v>
-      </c>
-      <c r="E20">
-        <v>0.37</v>
-      </c>
-      <c r="F20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G20">
-        <v>0.18</v>
-      </c>
-      <c r="H20">
-        <v>0.3</v>
+        <v>2</v>
+      </c>
+      <c r="C20" s="67">
+        <v>0.43727694503925768</v>
+      </c>
+      <c r="D20" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E20" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="F20" s="67">
+        <v>0.37546090273363003</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0.22423836064199806</v>
+      </c>
+      <c r="H20" s="67">
+        <v>0.19766852508869742</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <f>H20-C20</f>
-        <v>-0.10000000000000003</v>
+      <c r="J20" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.19766852508869742</v>
       </c>
       <c r="K20">
-        <f>AVERAGE(C20:I20)</f>
-        <v>0.28285714285714286</v>
+        <f t="shared" si="1"/>
+        <v>0.28637781907194043</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>0.54</v>
-      </c>
-      <c r="D21">
-        <v>0.54</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-      <c r="F21">
-        <v>0.35</v>
-      </c>
-      <c r="G21">
-        <v>0.21</v>
-      </c>
-      <c r="H21">
-        <v>0.39</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="67">
+        <v>0.4619113284024905</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0.43</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0.32</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0.40919757759273279</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0.24488290614051264</v>
+      </c>
+      <c r="H21" s="67">
+        <v>0.22129460201280879</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <f>H21-C21</f>
-        <v>-0.15000000000000002</v>
+      <c r="J21" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.22129460201280879</v>
       </c>
       <c r="K21">
-        <f>AVERAGE(C21:I21)</f>
-        <v>0.36142857142857149</v>
+        <f t="shared" si="1"/>
+        <v>0.29818377344979208</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="D22">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="E22">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="F22">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="G22">
-        <v>0.23</v>
-      </c>
-      <c r="H22">
-        <v>0.4</v>
+        <v>0.22</v>
+      </c>
+      <c r="H22" s="67">
+        <v>0.2</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>H22-C22</f>
-        <v>-0.13</v>
+        <v>0.27</v>
+      </c>
+      <c r="J22" s="67">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K22">
-        <f>AVERAGE(C22:I22)</f>
-        <v>0.3671428571428571</v>
+        <f>AVERAGE(C22:H22)</f>
+        <v>0.34166666666666662</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D23">
-        <v>0.6</v>
-      </c>
-      <c r="E23">
-        <v>0.51</v>
-      </c>
-      <c r="F23">
-        <v>0.41</v>
-      </c>
-      <c r="G23">
-        <v>0.27</v>
-      </c>
-      <c r="H23">
-        <v>0.46</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="67">
+        <v>0.53164213787761427</v>
+      </c>
+      <c r="D23" s="67">
+        <v>0.52</v>
+      </c>
+      <c r="E23" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="F23" s="67">
+        <v>0.49367657221838285</v>
+      </c>
+      <c r="G23" s="67">
+        <v>0.30996815395678529</v>
+      </c>
+      <c r="H23" s="67">
+        <v>0.26365571882307776</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <f>H23-C23</f>
-        <v>-0.10000000000000003</v>
+      <c r="J23" s="67">
+        <f t="shared" si="0"/>
+        <v>-0.26365571882307776</v>
       </c>
       <c r="K23">
         <f>AVERAGE(C23:I23)</f>
-        <v>0.40142857142857141</v>
+        <v>0.35127751183940864</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:K23">
-    <sortCondition descending="1" ref="A1"/>
+    <sortCondition descending="1" ref="I1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13283,36 +13110,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="15"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="17">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="13"/>
       <c r="M2" s="16"/>
     </row>
@@ -13837,10 +13664,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="13">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="10">
         <f t="shared" ref="C15:I15" si="6">SUM(C6:C14)</f>
         <v>18836</v>
@@ -14362,10 +14189,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="71"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="10">
         <f t="shared" ref="C27:I27" si="7">SUM(C17:C26)</f>
         <v>18196</v>
@@ -14841,10 +14668,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="13">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="71"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="10">
         <f t="shared" ref="C38:I38" si="12">SUM(C29:C37)</f>
         <v>19364</v>
@@ -15274,10 +15101,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="13">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="10">
         <f t="shared" ref="C48:I48" si="13">SUM(C40:C47)</f>
         <v>16899</v>
@@ -15707,10 +15534,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="13">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="71"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="10">
         <f t="shared" ref="C58:I58" si="14">SUM(C50:C57)</f>
         <v>15013</v>
@@ -16186,10 +16013,10 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="13">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="71"/>
+      <c r="B69" s="72"/>
       <c r="C69" s="10">
         <f t="shared" ref="C69:I69" si="15">SUM(C60:C68)</f>
         <v>14026</v>
@@ -16711,10 +16538,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="13">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="71"/>
+      <c r="B81" s="72"/>
       <c r="C81" s="10">
         <f t="shared" ref="C81:I81" si="17">SUM(C71:C80)</f>
         <v>19178</v>
@@ -17144,10 +16971,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="13">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="71"/>
+      <c r="B91" s="72"/>
       <c r="C91" s="10">
         <f t="shared" ref="C91:I91" si="18">SUM(C83:C90)</f>
         <v>16859</v>
@@ -17577,10 +17404,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="13">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="71"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="42">
         <f t="shared" ref="C101:I101" si="23">SUM(C93:C100)</f>
         <v>12138</v>
@@ -18056,10 +17883,10 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="13">
-      <c r="A112" s="71" t="s">
+      <c r="A112" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="71"/>
+      <c r="B112" s="72"/>
       <c r="C112" s="10">
         <f t="shared" ref="C112:I112" si="24">SUM(C103:C111)</f>
         <v>18616</v>
@@ -18581,10 +18408,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="13">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="71"/>
+      <c r="B124" s="72"/>
       <c r="C124" s="10">
         <f t="shared" ref="C124:I124" si="25">SUM(C114:C123)</f>
         <v>19720</v>
@@ -19106,10 +18933,10 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="13">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="71"/>
+      <c r="B136" s="72"/>
       <c r="C136" s="10">
         <f t="shared" ref="C136:I136" si="27">SUM(C126:C135)</f>
         <v>21660</v>
@@ -19585,10 +19412,10 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="13">
-      <c r="A147" s="71" t="s">
+      <c r="A147" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="71"/>
+      <c r="B147" s="72"/>
       <c r="C147" s="10">
         <f t="shared" ref="C147:I147" si="28">SUM(C138:C146)</f>
         <v>22846</v>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -648,10 +648,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -897,7 +899,7 @@
     </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -941,6 +943,7 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -983,6 +986,7 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1384,10 +1388,13 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="60" t="s">

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="2180" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="4980" yWindow="2180" windowWidth="25040" windowHeight="15500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="turnout_summary" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>Ward</t>
   </si>
@@ -887,17 +887,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1387,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -1428,22 +1428,22 @@
       <c r="A5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="70">
         <v>222101</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="70">
         <v>200311</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="70">
         <v>217802</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="70">
         <v>229593</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="70">
         <v>231078</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="70">
         <v>233351</v>
       </c>
     </row>
@@ -1451,23 +1451,23 @@
       <c r="A6" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="15">
       <c r="A7" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="66">
         <v>239750</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="M57" s="66">
         <v>150676</v>
       </c>
-      <c r="N57" s="73">
+      <c r="N57" s="69">
         <v>156543</v>
       </c>
     </row>
@@ -13117,36 +13117,36 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
       <c r="L1" s="15"/>
       <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="17">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="13"/>
       <c r="M2" s="16"/>
     </row>
@@ -13671,10 +13671,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="13">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="10">
         <f t="shared" ref="C15:I15" si="6">SUM(C6:C14)</f>
         <v>18836</v>
@@ -14196,10 +14196,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="13">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="72"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="10">
         <f t="shared" ref="C27:I27" si="7">SUM(C17:C26)</f>
         <v>18196</v>
@@ -14675,10 +14675,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="13">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="72"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="10">
         <f t="shared" ref="C38:I38" si="12">SUM(C29:C37)</f>
         <v>19364</v>
@@ -15108,10 +15108,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="13">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="72"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="10">
         <f t="shared" ref="C48:I48" si="13">SUM(C40:C47)</f>
         <v>16899</v>
@@ -15541,10 +15541,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="13">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="72"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="10">
         <f t="shared" ref="C58:I58" si="14">SUM(C50:C57)</f>
         <v>15013</v>
@@ -16020,10 +16020,10 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="13">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="72"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="10">
         <f t="shared" ref="C69:I69" si="15">SUM(C60:C68)</f>
         <v>14026</v>
@@ -16545,10 +16545,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="13">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="72"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="10">
         <f t="shared" ref="C81:I81" si="17">SUM(C71:C80)</f>
         <v>19178</v>
@@ -16978,10 +16978,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="13">
-      <c r="A91" s="72" t="s">
+      <c r="A91" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="72"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="10">
         <f t="shared" ref="C91:I91" si="18">SUM(C83:C90)</f>
         <v>16859</v>
@@ -17411,10 +17411,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="13">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="72"/>
+      <c r="B101" s="71"/>
       <c r="C101" s="42">
         <f t="shared" ref="C101:I101" si="23">SUM(C93:C100)</f>
         <v>12138</v>
@@ -17890,10 +17890,10 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="13">
-      <c r="A112" s="72" t="s">
+      <c r="A112" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="72"/>
+      <c r="B112" s="71"/>
       <c r="C112" s="10">
         <f t="shared" ref="C112:I112" si="24">SUM(C103:C111)</f>
         <v>18616</v>
@@ -18415,10 +18415,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="13">
-      <c r="A124" s="72" t="s">
+      <c r="A124" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="72"/>
+      <c r="B124" s="71"/>
       <c r="C124" s="10">
         <f t="shared" ref="C124:I124" si="25">SUM(C114:C123)</f>
         <v>19720</v>
@@ -18940,10 +18940,10 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="13">
-      <c r="A136" s="72" t="s">
+      <c r="A136" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B136" s="72"/>
+      <c r="B136" s="71"/>
       <c r="C136" s="10">
         <f t="shared" ref="C136:I136" si="27">SUM(C126:C135)</f>
         <v>21660</v>
@@ -19419,10 +19419,10 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="13">
-      <c r="A147" s="72" t="s">
+      <c r="A147" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B147" s="72"/>
+      <c r="B147" s="71"/>
       <c r="C147" s="10">
         <f t="shared" ref="C147:I147" si="28">SUM(C138:C146)</f>
         <v>22846</v>
@@ -20025,6 +20025,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A147:B147"/>
@@ -20035,11 +20040,6 @@
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -20149,10 +20149,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B58"/>
+  <dimension ref="A2:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -20162,375 +20162,370 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="60" t="s">
-        <v>91</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="60" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="60" t="s">
-        <v>111</v>
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
+      <c r="A15" s="60" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="60" t="s">
-        <v>68</v>
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
+      <c r="A29" s="60" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="60" t="s">
-        <v>69</v>
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
+      <c r="A40" s="60" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="60" t="s">
-        <v>70</v>
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
         <v>85</v>
       </c>
     </row>
